--- a/CASUAL/LA ONT/MANGUINAO, NIÑA FERMA.xlsx
+++ b/CASUAL/LA ONT/MANGUINAO, NIÑA FERMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
   </si>
 </sst>
 </file>
@@ -577,6 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,7 +1228,7 @@
   <dimension ref="A2:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,66 +1250,66 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>44743</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1329,18 +1335,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1387,7 +1393,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.222999999999999</v>
+        <v>6.1670000000000016</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1425,7 +1431,7 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="47">
         <v>44713</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -1514,11 +1520,15 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="C15" s="14">
         <v>1.25</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14">
@@ -1608,11 +1618,15 @@
       <c r="A19" s="24">
         <v>44896</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="14">
         <v>1.25</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="12"/>
       <c r="G19" s="14">
@@ -2581,17 +2595,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="J1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -2628,11 +2642,11 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9">
         <f>SUM(D3,E4,F4)</f>
-        <v>2.700000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="42"/>
       <c r="K3" s="43">
@@ -2651,7 +2665,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2))</f>
-        <v>2.700000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
@@ -2675,12 +2689,12 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
